--- a/1_variable.js/7_WebScraping/espnScraper/IPL/Royal Challengers Bangalore/Devdutt Padikkal.xlsx
+++ b/1_variable.js/7_WebScraping/espnScraper/IPL/Royal Challengers Bangalore/Devdutt Padikkal.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -940,9 +940,534 @@
         <v>RCB won by 82 runs</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="D17" t="str">
+        <v>63</v>
+      </c>
+      <c r="E17" t="str">
+        <v>45</v>
+      </c>
+      <c r="F17" t="str">
+        <v>6</v>
+      </c>
+      <c r="G17" t="str">
+        <v>1</v>
+      </c>
+      <c r="H17" t="str">
+        <v>140.00</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Oct 3 2020</v>
+      </c>
+      <c r="K17" t="str">
+        <v>RCB won by 8 wickets (with 5 balls remaining)</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="D18" t="str">
+        <v>4</v>
+      </c>
+      <c r="E18" t="str">
+        <v>6</v>
+      </c>
+      <c r="F18" t="str">
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <v>0</v>
+      </c>
+      <c r="H18" t="str">
+        <v>66.66</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Oct 5 2020</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Capitals won by 59 runs</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="D19" t="str">
+        <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <v>6</v>
+      </c>
+      <c r="F19" t="str">
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
+        <v>16.66</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Nov 6 2020</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Sunrisers won by 6 wickets (with 2 balls remaining)</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="D20" t="str">
+        <v>50</v>
+      </c>
+      <c r="E20" t="str">
+        <v>41</v>
+      </c>
+      <c r="F20" t="str">
+        <v>5</v>
+      </c>
+      <c r="G20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H20" t="str">
+        <v>121.95</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Nov 2 2020</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Capitals won by 6 wickets (with 6 balls remaining)</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="D21" t="str">
+        <v>22</v>
+      </c>
+      <c r="E21" t="str">
+        <v>21</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <v>1</v>
+      </c>
+      <c r="H21" t="str">
+        <v>104.76</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Oct 25 2020</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Super Kings won by 8 wickets (with 8 balls remaining)</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="D22" t="str">
+        <v>5</v>
+      </c>
+      <c r="E22" t="str">
+        <v>8</v>
+      </c>
+      <c r="F22" t="str">
+        <v>1</v>
+      </c>
+      <c r="G22" t="str">
+        <v>0</v>
+      </c>
+      <c r="H22" t="str">
+        <v>62.50</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Oct 31 2020</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Sunrisers won by 5 wickets (with 35 balls remaining)</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="D23" t="str">
+        <v>54</v>
+      </c>
+      <c r="E23" t="str">
+        <v>40</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+      <c r="G23" t="str">
+        <v>2</v>
+      </c>
+      <c r="H23" t="str">
+        <v>135.00</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Sep 28 2020</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Match tied (RCB won the one-over eliminator)</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="D24" t="str">
+        <v>74</v>
+      </c>
+      <c r="E24" t="str">
+        <v>45</v>
+      </c>
+      <c r="F24" t="str">
+        <v>12</v>
+      </c>
+      <c r="G24" t="str">
+        <v>1</v>
+      </c>
+      <c r="H24" t="str">
+        <v>164.44</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Oct 28 2020</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="D25" t="str">
+        <v>33</v>
+      </c>
+      <c r="E25" t="str">
+        <v>34</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <v>1</v>
+      </c>
+      <c r="H25" t="str">
+        <v>97.05</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Oct 10 2020</v>
+      </c>
+      <c r="K25" t="str">
+        <v>RCB won by 37 runs</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="D26" t="str">
+        <v>35</v>
+      </c>
+      <c r="E26" t="str">
+        <v>37</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <v>0</v>
+      </c>
+      <c r="H26" t="str">
+        <v>94.59</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Oct 17 2020</v>
+      </c>
+      <c r="K26" t="str">
+        <v>RCB won by 7 wickets (with 2 balls remaining)</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="D27" t="str">
+        <v>18</v>
+      </c>
+      <c r="E27" t="str">
+        <v>12</v>
+      </c>
+      <c r="F27" t="str">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <v>1</v>
+      </c>
+      <c r="H27" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Oct 15 2020</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Kings XI won by 8 wickets</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="D28" t="str">
+        <v>25</v>
+      </c>
+      <c r="E28" t="str">
+        <v>17</v>
+      </c>
+      <c r="F28" t="str">
+        <v>3</v>
+      </c>
+      <c r="G28" t="str">
+        <v>0</v>
+      </c>
+      <c r="H28" t="str">
+        <v>147.05</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Oct 21 2020</v>
+      </c>
+      <c r="K28" t="str">
+        <v>RCB won by 8 wickets (with 39 balls remaining)</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="D29" t="str">
+        <v>32</v>
+      </c>
+      <c r="E29" t="str">
+        <v>23</v>
+      </c>
+      <c r="F29" t="str">
+        <v>4</v>
+      </c>
+      <c r="G29" t="str">
+        <v>1</v>
+      </c>
+      <c r="H29" t="str">
+        <v>139.13</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Oct 12 2020</v>
+      </c>
+      <c r="K29" t="str">
+        <v>RCB won by 82 runs</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="D30" t="str">
+        <v>56</v>
+      </c>
+      <c r="E30" t="str">
+        <v>42</v>
+      </c>
+      <c r="F30" t="str">
+        <v>8</v>
+      </c>
+      <c r="G30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H30" t="str">
+        <v>133.33</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Sep 21 2020</v>
+      </c>
+      <c r="K30" t="str">
+        <v>RCB won by 10 runs</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="D31" t="str">
+        <v>1</v>
+      </c>
+      <c r="E31" t="str">
+        <v>2</v>
+      </c>
+      <c r="F31" t="str">
+        <v>0</v>
+      </c>
+      <c r="G31" t="str">
+        <v>0</v>
+      </c>
+      <c r="H31" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Sep 24 2020</v>
+      </c>
+      <c r="K31" t="str">
+        <v>Kings XI won by 97 runs</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K31"/>
   </ignoredErrors>
 </worksheet>
 </file>